--- a/data/ClueLayoutTests3.xlsx
+++ b/data/ClueLayoutTests3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mines0-my.sharepoint.com/personal/burns_mines_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keena\Desktop\Clue\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F1CACB8-1431-A54A-A4D2-8715BFAC834F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BDDABF-7D73-450A-B5E9-7CCB52648204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="2320" windowWidth="18200" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +246,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED8446"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -281,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -338,6 +350,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -653,15 +669,15 @@
   <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="32" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="32" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -756,7 +772,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -784,7 +800,7 @@
       <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="22" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="5" t="s">
@@ -854,7 +870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -952,7 +968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1050,7 +1066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1148,7 +1164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1246,7 +1262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1344,7 +1360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1435,14 +1451,14 @@
       <c r="AD8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AE8" s="10" t="s">
+      <c r="AE8" s="22" t="s">
         <v>16</v>
       </c>
       <c r="AF8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1540,7 +1556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1607,7 +1623,7 @@
       <c r="V10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="W10" s="10" t="s">
+      <c r="W10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="X10" s="4" t="s">
@@ -1638,7 +1654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1736,7 +1752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1770,7 +1786,7 @@
       <c r="K12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="25" t="s">
         <v>16</v>
       </c>
       <c r="M12" s="6" t="s">
@@ -1834,7 +1850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1932,7 +1948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2030,7 +2046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2128,7 +2144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2226,7 +2242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2314,7 +2330,7 @@
       <c r="AC17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AD17" s="10" t="s">
+      <c r="AD17" s="22" t="s">
         <v>13</v>
       </c>
       <c r="AE17" s="6" t="s">
@@ -2324,7 +2340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2422,7 +2438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2520,7 +2536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2618,7 +2634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2716,7 +2732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2777,7 +2793,7 @@
       <c r="T22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="22" t="s">
+      <c r="U22" s="25" t="s">
         <v>14</v>
       </c>
       <c r="V22" s="4" t="s">
@@ -2814,7 +2830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2839,13 +2855,13 @@
       <c r="H23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="22" t="s">
         <v>8</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="25" t="s">
         <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
@@ -2912,7 +2928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -3010,7 +3026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -3108,7 +3124,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -3206,24 +3222,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="1">
-        <v>18</v>
-      </c>
     </row>
-    <row r="29" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="17" t="s">
         <v>42</v>
       </c>
@@ -3235,8 +3248,9 @@
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
     </row>
-    <row r="31" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
         <v>41</v>
       </c>
@@ -3245,16 +3259,19 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
-    <row r="32" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
     </row>
-    <row r="33" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
         <v>39</v>
       </c>
@@ -3262,9 +3279,9 @@
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
     </row>
-    <row r="34" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
